--- a/notebooks/SMARCB1/input/SMARCB1_RTPS1_individuals.xlsx
+++ b/notebooks/SMARCB1/input/SMARCB1_RTPS1_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SMARCB1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SMARCB1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E267CA63-2F72-4749-8054-87CC3CE07590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E987E4-824F-4245-BD56-A17170F83DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24680" yWindow="12660" windowWidth="26020" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="5400" windowWidth="33260" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="99">
   <si>
     <t>PMID</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Evidence for a low-penetrant extended phenotype of rhabdoid tumor predisposition syndrome type 1 from a kindred with gain of SMARCB1 exon 6</t>
   </si>
   <si>
-    <t>II.1</t>
-  </si>
-  <si>
     <t>P6Y</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>HP:0034401</t>
   </si>
   <si>
-    <t>I.2</t>
-  </si>
-  <si>
     <t>P47Y</t>
   </si>
   <si>
@@ -161,6 +155,168 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>III.1</t>
+  </si>
+  <si>
+    <t>II.2</t>
+  </si>
+  <si>
+    <t>PMID:39117932</t>
+  </si>
+  <si>
+    <t>Late-onset tumors in rhabdoid tumor predisposition syndrome type-1 (RTPS1) and implications for surveillance</t>
+  </si>
+  <si>
+    <t>individual 1</t>
+  </si>
+  <si>
+    <t>individual 2</t>
+  </si>
+  <si>
+    <t>individual 3</t>
+  </si>
+  <si>
+    <t>individual 4</t>
+  </si>
+  <si>
+    <t>individual 5</t>
+  </si>
+  <si>
+    <t>individual 6</t>
+  </si>
+  <si>
+    <t>individual 7</t>
+  </si>
+  <si>
+    <t>individual 8</t>
+  </si>
+  <si>
+    <t>individual 9</t>
+  </si>
+  <si>
+    <t>individual 10</t>
+  </si>
+  <si>
+    <t>individual 11</t>
+  </si>
+  <si>
+    <t>individual 12</t>
+  </si>
+  <si>
+    <t>P11M</t>
+  </si>
+  <si>
+    <t>P1Y10M</t>
+  </si>
+  <si>
+    <t>P2Y</t>
+  </si>
+  <si>
+    <t>P1M</t>
+  </si>
+  <si>
+    <t>P2M</t>
+  </si>
+  <si>
+    <t>P4M</t>
+  </si>
+  <si>
+    <t>P5M</t>
+  </si>
+  <si>
+    <t>P1Y2M</t>
+  </si>
+  <si>
+    <t>P1Y7M</t>
+  </si>
+  <si>
+    <t>Neuroepithelial neoplasm</t>
+  </si>
+  <si>
+    <t>HP:0030063</t>
+  </si>
+  <si>
+    <t>Rhabdoid tumor of the kidney</t>
+  </si>
+  <si>
+    <t>HP:0034402</t>
+  </si>
+  <si>
+    <t>Rhabdoid tumor</t>
+  </si>
+  <si>
+    <t>HP:0034557</t>
+  </si>
+  <si>
+    <t>del ex1-5</t>
+  </si>
+  <si>
+    <t>c.61dup</t>
+  </si>
+  <si>
+    <t>del ex6</t>
+  </si>
+  <si>
+    <t>del ex1-9</t>
+  </si>
+  <si>
+    <t>c.630_640del</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>dup ex6</t>
+  </si>
+  <si>
+    <t>22q11.2 distal deletion</t>
+  </si>
+  <si>
+    <t>c.140del</t>
+  </si>
+  <si>
+    <t>P18Y</t>
+  </si>
+  <si>
+    <t>P14Y</t>
+  </si>
+  <si>
+    <t>P17Y</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>P9M</t>
+  </si>
+  <si>
+    <t>P7M</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>P6M</t>
+  </si>
+  <si>
+    <t>P3Y</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>Schwannoma</t>
+  </si>
+  <si>
+    <t>HP:0100008</t>
+  </si>
+  <si>
+    <t>duplication - c.859-?_1001+?dup</t>
   </si>
 </sst>
 </file>
@@ -531,15 +687,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,16 +751,28 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -654,16 +825,28 @@
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -671,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -689,37 +872,37 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
       <c r="Q3" t="s">
         <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -727,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -745,34 +928,655 @@
         <v>24</v>
       </c>
       <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" t="s">
+        <v>95</v>
+      </c>
+      <c r="X5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
